--- a/CustodyDemo_Lineage_3Levels.xlsx
+++ b/CustodyDemo_Lineage_3Levels.xlsx
@@ -5,26 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priya\Source\Repos\FinData_Governance_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6599E6A0-6215-4238-90C8-7C61C89DD892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921BEE60-357F-4450-9C59-17EF66AE578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="01_Business_Lineage" sheetId="1" r:id="rId1"/>
     <sheet name="02_Technical_Lineage" sheetId="2" r:id="rId2"/>
     <sheet name="03_Column_Lineage" sheetId="3" r:id="rId3"/>
-    <sheet name="Edges" sheetId="4" r:id="rId4"/>
-    <sheet name="Visio_DataVisualizer" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3807" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2836" uniqueCount="346">
   <si>
     <t>Level_Order</t>
   </si>
@@ -1059,624 +1057,6 @@
   </si>
   <si>
     <t>AVERAGE('prod.vw_Fact_Transactions'[Settlement_Days])</t>
-  </si>
-  <si>
-    <t>From_Node</t>
-  </si>
-  <si>
-    <t>To_Node</t>
-  </si>
-  <si>
-    <t>Expression_Note</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Account_Number</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Account_Number</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Investor_Name</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Investor_Name</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Currency_Code</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Currency_Code</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Account_Type</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Account_Type</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Country</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Country</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Region</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Region</t>
-  </si>
-  <si>
-    <t>(folder).Accounts.csv.Open_Date</t>
-  </si>
-  <si>
-    <t>(file).Accounts_raw.Open_Date</t>
-  </si>
-  <si>
-    <t>(folder).Securities.csv.Security_ID</t>
-  </si>
-  <si>
-    <t>(file).Securities_raw.Security_ID</t>
-  </si>
-  <si>
-    <t>(folder).Securities.csv.Security_Name</t>
-  </si>
-  <si>
-    <t>(file).Securities_raw.Security_Name</t>
-  </si>
-  <si>
-    <t>(folder).Securities.csv.Asset_Type</t>
-  </si>
-  <si>
-    <t>(file).Securities_raw.Asset_Type</t>
-  </si>
-  <si>
-    <t>(folder).Securities.csv.ISIN</t>
-  </si>
-  <si>
-    <t>(file).Securities_raw.ISIN</t>
-  </si>
-  <si>
-    <t>(folder).Securities.csv.CUSIP</t>
-  </si>
-  <si>
-    <t>(file).Securities_raw.CUSIP</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Transaction_ID</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Transaction_ID</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Account_Number</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Account_Number</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Security_ID</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Security_ID</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Trade_Date</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Trade_Date</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Settlement_Date</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Settlement_Date</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Quantity</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Quantity</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Price</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Price</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Trade_Amount</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Trade_Amount</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Status</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Status</t>
-  </si>
-  <si>
-    <t>(folder).Transactions.csv.Currency_Code</t>
-  </si>
-  <si>
-    <t>(file).Transactions_raw.Currency_Code</t>
-  </si>
-  <si>
-    <t>(folder).Corporate_Actions.csv.Action_ID</t>
-  </si>
-  <si>
-    <t>(file).Corporate_actions_raw.Action_ID</t>
-  </si>
-  <si>
-    <t>(folder).Corporate_Actions.csv.Security_ID</t>
-  </si>
-  <si>
-    <t>(file).Corporate_actions_raw.Security_ID</t>
-  </si>
-  <si>
-    <t>(folder).Corporate_Actions.csv.Action_Type</t>
-  </si>
-  <si>
-    <t>(file).Corporate_actions_raw.Action_Type</t>
-  </si>
-  <si>
-    <t>(folder).Corporate_Actions.csv.Action_Date</t>
-  </si>
-  <si>
-    <t>(file).Corporate_actions_raw.Action_Date</t>
-  </si>
-  <si>
-    <t>(folder).Corporate_Actions.csv.Amount</t>
-  </si>
-  <si>
-    <t>(file).Corporate_actions_raw.Amount</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Account_Number</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Investor_Name</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Currency_Code</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Account_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Country</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Region</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Precheck.Open_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Precheck.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Precheck.Security_Name</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Precheck.Asset_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Precheck.ISIN</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Precheck.CUSIP</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Transaction_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Account_Number</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Trade_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Settlement_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Quantity</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Price</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Trade_Amount</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Status</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Transactions_PreCheck.Currency_Code</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_PreCheck.Action_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_PreCheck.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_PreCheck.Action_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_PreCheck.Action_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_PreCheck.Amount</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Account_Number</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Investor_Name</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Currency_Code</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Account_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Country</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Region</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Accounts_Staging.Open_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Staging.Security_Name</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Staging.Asset_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Staging.ISIN</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Securities_Staging.CUSIP</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Transaction_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Account_Number</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Trade_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Settlement_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Quantity</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Price</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Trade_Amount</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Status</t>
-  </si>
-  <si>
-    <t>(PowerQuery).TransactionPre_Staging.Currency_Code</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_Staging.Action_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_Staging.Action_Type</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_Staging.Action_Date</t>
-  </si>
-  <si>
-    <t>(PowerQuery).Corporate_Actions_Staging.Amount</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Account_Number</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Investor_Name</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Currency_Code</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Account_Type</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Country</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Region</t>
-  </si>
-  <si>
-    <t>staging.Accounts_Staging.Open_Date</t>
-  </si>
-  <si>
-    <t>staging.Securities_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>staging.Securities_Staging.Security_Name</t>
-  </si>
-  <si>
-    <t>staging.Securities_Staging.Asset_Type</t>
-  </si>
-  <si>
-    <t>staging.Securities_Staging.ISIN</t>
-  </si>
-  <si>
-    <t>staging.Securities_Staging.CUSIP</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Transaction_ID</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Account_Number</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Trade_Date</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Settlement_Date</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Quantity</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Price</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Trade_Amount</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Status</t>
-  </si>
-  <si>
-    <t>staging.Transactions_Staging.Currency_Code</t>
-  </si>
-  <si>
-    <t>staging.Corporate_Actions_Staging.Action_ID</t>
-  </si>
-  <si>
-    <t>staging.Corporate_Actions_Staging.Security_ID</t>
-  </si>
-  <si>
-    <t>staging.Corporate_Actions_Staging.Action_Type</t>
-  </si>
-  <si>
-    <t>staging.Corporate_Actions_Staging.Action_Date</t>
-  </si>
-  <si>
-    <t>staging.Corporate_Actions_Staging.Amount</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Account_Number</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Investor_Name</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Account_Type</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Country</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Region</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Open_Date</t>
-  </si>
-  <si>
-    <t>prod.Accounts.Currency_Code</t>
-  </si>
-  <si>
-    <t>prod.Securities.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.Securities.Security_Name</t>
-  </si>
-  <si>
-    <t>prod.Securities.Asset_Type</t>
-  </si>
-  <si>
-    <t>prod.Securities.ISIN</t>
-  </si>
-  <si>
-    <t>prod.Securities.CUSIP</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Transaction_ID</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Trade_Date</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Settlement_Date</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Quantity</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Price</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Trade_Amount</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Status</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Account_Number</t>
-  </si>
-  <si>
-    <t>prod.Transactions.Currency_Code</t>
-  </si>
-  <si>
-    <t>prod.Corporate_Actions.Action_ID</t>
-  </si>
-  <si>
-    <t>prod.Corporate_Actions.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.Corporate_Actions.Action_Type</t>
-  </si>
-  <si>
-    <t>prod.Corporate_Actions.Action_Date</t>
-  </si>
-  <si>
-    <t>prod.Corporate_Actions.Amount</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Account_Number</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Investor_Name</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Currency_Code</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Account_Type</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Country</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Region</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Accounts.Open_Date</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Securities.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Securities.Security_Name</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Securities.Asset_Type</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Securities.ISIN</t>
-  </si>
-  <si>
-    <t>prod.vw_Dim_Securities.CUSIP</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Transaction_ID</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Account_Number</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Trade_Date</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Settlement_Date</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Quantity</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Price</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Trade_Amount</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Status</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Currency_Code</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Settlement_Days</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_CorpActions.Action_ID</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_CorpActions.Security_ID</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_CorpActions.Action_Type</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_CorpActions.Action_Date</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_CorpActions.Amount</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Total Trades</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Total Trade Amount</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Settled %</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Failed %</t>
-  </si>
-  <si>
-    <t>prod.vw_Fact_Transactions.Avg Settlement Days</t>
-  </si>
-  <si>
-    <t>Process Step ID</t>
-  </si>
-  <si>
-    <t>Process Step Description</t>
-  </si>
-  <si>
-    <t>Next Step ID</t>
-  </si>
-  <si>
-    <t>Next Step Description</t>
-  </si>
-  <si>
-    <t>Connector Label</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>Phase</t>
-  </si>
-  <si>
-    <t>-- Visio: File &gt; New &gt; Data Visualizer &gt; Basic Flowchart &gt; Create from Data. Map 'Process Step ID' and 'Next Step ID'. 'Connector Label' optional.</t>
   </si>
   <si>
     <t>Relationships: Accounts→Transactions, Securities→Transactions, Corporate_Actions→Transactions</t>
@@ -2044,8 +1424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2291,7 +1671,7 @@
         <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>551</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -11139,3642 +10519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C170"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>355</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" t="s">
-        <v>357</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B8" t="s">
-        <v>361</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>362</v>
-      </c>
-      <c r="B9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>364</v>
-      </c>
-      <c r="B10" t="s">
-        <v>365</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>366</v>
-      </c>
-      <c r="B11" t="s">
-        <v>367</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B12" t="s">
-        <v>369</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>370</v>
-      </c>
-      <c r="B13" t="s">
-        <v>371</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>374</v>
-      </c>
-      <c r="B15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" t="s">
-        <v>377</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>378</v>
-      </c>
-      <c r="B17" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" t="s">
-        <v>381</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B19" t="s">
-        <v>383</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>384</v>
-      </c>
-      <c r="B20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B21" t="s">
-        <v>387</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>388</v>
-      </c>
-      <c r="B22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>390</v>
-      </c>
-      <c r="B23" t="s">
-        <v>391</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="B24" t="s">
-        <v>393</v>
-      </c>
-      <c r="C24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>394</v>
-      </c>
-      <c r="B25" t="s">
-        <v>395</v>
-      </c>
-      <c r="C25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>396</v>
-      </c>
-      <c r="B26" t="s">
-        <v>397</v>
-      </c>
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>398</v>
-      </c>
-      <c r="B27" t="s">
-        <v>399</v>
-      </c>
-      <c r="C27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>400</v>
-      </c>
-      <c r="B28" t="s">
-        <v>401</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>349</v>
-      </c>
-      <c r="B29" t="s">
-        <v>402</v>
-      </c>
-      <c r="C29" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C30" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>353</v>
-      </c>
-      <c r="B31" t="s">
-        <v>404</v>
-      </c>
-      <c r="C31" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>355</v>
-      </c>
-      <c r="B32" t="s">
-        <v>405</v>
-      </c>
-      <c r="C32" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" t="s">
-        <v>406</v>
-      </c>
-      <c r="C33" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>359</v>
-      </c>
-      <c r="B34" t="s">
-        <v>407</v>
-      </c>
-      <c r="C34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>361</v>
-      </c>
-      <c r="B35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C35" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>363</v>
-      </c>
-      <c r="B36" t="s">
-        <v>409</v>
-      </c>
-      <c r="C36" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>365</v>
-      </c>
-      <c r="B37" t="s">
-        <v>410</v>
-      </c>
-      <c r="C37" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>367</v>
-      </c>
-      <c r="B38" t="s">
-        <v>411</v>
-      </c>
-      <c r="C38" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>369</v>
-      </c>
-      <c r="B39" t="s">
-        <v>412</v>
-      </c>
-      <c r="C39" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>371</v>
-      </c>
-      <c r="B40" t="s">
-        <v>413</v>
-      </c>
-      <c r="C40" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>373</v>
-      </c>
-      <c r="B41" t="s">
-        <v>414</v>
-      </c>
-      <c r="C41" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>375</v>
-      </c>
-      <c r="B42" t="s">
-        <v>415</v>
-      </c>
-      <c r="C42" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>377</v>
-      </c>
-      <c r="B43" t="s">
-        <v>416</v>
-      </c>
-      <c r="C43" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>379</v>
-      </c>
-      <c r="B44" t="s">
-        <v>417</v>
-      </c>
-      <c r="C44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>381</v>
-      </c>
-      <c r="B45" t="s">
-        <v>418</v>
-      </c>
-      <c r="C45" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>383</v>
-      </c>
-      <c r="B46" t="s">
-        <v>419</v>
-      </c>
-      <c r="C46" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>385</v>
-      </c>
-      <c r="B47" t="s">
-        <v>420</v>
-      </c>
-      <c r="C47" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>387</v>
-      </c>
-      <c r="B48" t="s">
-        <v>421</v>
-      </c>
-      <c r="C48" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>389</v>
-      </c>
-      <c r="B49" t="s">
-        <v>422</v>
-      </c>
-      <c r="C49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>391</v>
-      </c>
-      <c r="B50" t="s">
-        <v>423</v>
-      </c>
-      <c r="C50" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>393</v>
-      </c>
-      <c r="B51" t="s">
-        <v>424</v>
-      </c>
-      <c r="C51" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>395</v>
-      </c>
-      <c r="B52" t="s">
-        <v>425</v>
-      </c>
-      <c r="C52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>397</v>
-      </c>
-      <c r="B53" t="s">
-        <v>426</v>
-      </c>
-      <c r="C53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>399</v>
-      </c>
-      <c r="B54" t="s">
-        <v>427</v>
-      </c>
-      <c r="C54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>401</v>
-      </c>
-      <c r="B55" t="s">
-        <v>428</v>
-      </c>
-      <c r="C55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>402</v>
-      </c>
-      <c r="B56" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>403</v>
-      </c>
-      <c r="B57" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>404</v>
-      </c>
-      <c r="B58" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>405</v>
-      </c>
-      <c r="B59" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>406</v>
-      </c>
-      <c r="B60" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>407</v>
-      </c>
-      <c r="B61" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>408</v>
-      </c>
-      <c r="B62" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>409</v>
-      </c>
-      <c r="B63" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>410</v>
-      </c>
-      <c r="B64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>411</v>
-      </c>
-      <c r="B65" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>412</v>
-      </c>
-      <c r="B66" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>413</v>
-      </c>
-      <c r="B67" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>414</v>
-      </c>
-      <c r="B68" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>415</v>
-      </c>
-      <c r="B69" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>416</v>
-      </c>
-      <c r="B70" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>417</v>
-      </c>
-      <c r="B71" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>418</v>
-      </c>
-      <c r="B72" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>419</v>
-      </c>
-      <c r="B73" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>420</v>
-      </c>
-      <c r="B74" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>421</v>
-      </c>
-      <c r="B75" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>422</v>
-      </c>
-      <c r="B76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>423</v>
-      </c>
-      <c r="B77" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>424</v>
-      </c>
-      <c r="B78" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>425</v>
-      </c>
-      <c r="B79" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>426</v>
-      </c>
-      <c r="B80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>427</v>
-      </c>
-      <c r="B81" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>428</v>
-      </c>
-      <c r="B82" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>429</v>
-      </c>
-      <c r="B83" t="s">
-        <v>456</v>
-      </c>
-      <c r="C83" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>430</v>
-      </c>
-      <c r="B84" t="s">
-        <v>457</v>
-      </c>
-      <c r="C84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>431</v>
-      </c>
-      <c r="B85" t="s">
-        <v>458</v>
-      </c>
-      <c r="C85" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>432</v>
-      </c>
-      <c r="B86" t="s">
-        <v>459</v>
-      </c>
-      <c r="C86" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>433</v>
-      </c>
-      <c r="B87" t="s">
-        <v>460</v>
-      </c>
-      <c r="C87" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>434</v>
-      </c>
-      <c r="B88" t="s">
-        <v>461</v>
-      </c>
-      <c r="C88" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>435</v>
-      </c>
-      <c r="B89" t="s">
-        <v>462</v>
-      </c>
-      <c r="C89" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>436</v>
-      </c>
-      <c r="B90" t="s">
-        <v>463</v>
-      </c>
-      <c r="C90" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>437</v>
-      </c>
-      <c r="B91" t="s">
-        <v>464</v>
-      </c>
-      <c r="C91" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>438</v>
-      </c>
-      <c r="B92" t="s">
-        <v>465</v>
-      </c>
-      <c r="C92" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>439</v>
-      </c>
-      <c r="B93" t="s">
-        <v>466</v>
-      </c>
-      <c r="C93" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>440</v>
-      </c>
-      <c r="B94" t="s">
-        <v>467</v>
-      </c>
-      <c r="C94" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>441</v>
-      </c>
-      <c r="B95" t="s">
-        <v>468</v>
-      </c>
-      <c r="C95" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>442</v>
-      </c>
-      <c r="B96" t="s">
-        <v>469</v>
-      </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>443</v>
-      </c>
-      <c r="B97" t="s">
-        <v>470</v>
-      </c>
-      <c r="C97" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>444</v>
-      </c>
-      <c r="B98" t="s">
-        <v>471</v>
-      </c>
-      <c r="C98" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>445</v>
-      </c>
-      <c r="B99" t="s">
-        <v>472</v>
-      </c>
-      <c r="C99" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>446</v>
-      </c>
-      <c r="B100" t="s">
-        <v>473</v>
-      </c>
-      <c r="C100" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>447</v>
-      </c>
-      <c r="B101" t="s">
-        <v>474</v>
-      </c>
-      <c r="C101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>448</v>
-      </c>
-      <c r="B102" t="s">
-        <v>475</v>
-      </c>
-      <c r="C102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>449</v>
-      </c>
-      <c r="B103" t="s">
-        <v>476</v>
-      </c>
-      <c r="C103" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>450</v>
-      </c>
-      <c r="B104" t="s">
-        <v>477</v>
-      </c>
-      <c r="C104" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>451</v>
-      </c>
-      <c r="B105" t="s">
-        <v>478</v>
-      </c>
-      <c r="C105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>452</v>
-      </c>
-      <c r="B106" t="s">
-        <v>479</v>
-      </c>
-      <c r="C106" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>453</v>
-      </c>
-      <c r="B107" t="s">
-        <v>480</v>
-      </c>
-      <c r="C107" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>454</v>
-      </c>
-      <c r="B108" t="s">
-        <v>481</v>
-      </c>
-      <c r="C108" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>455</v>
-      </c>
-      <c r="B109" t="s">
-        <v>482</v>
-      </c>
-      <c r="C109" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>456</v>
-      </c>
-      <c r="B110" t="s">
-        <v>483</v>
-      </c>
-      <c r="C110" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>457</v>
-      </c>
-      <c r="B111" t="s">
-        <v>484</v>
-      </c>
-      <c r="C111" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>459</v>
-      </c>
-      <c r="B112" t="s">
-        <v>485</v>
-      </c>
-      <c r="C112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>460</v>
-      </c>
-      <c r="B113" t="s">
-        <v>486</v>
-      </c>
-      <c r="C113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>461</v>
-      </c>
-      <c r="B114" t="s">
-        <v>487</v>
-      </c>
-      <c r="C114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>462</v>
-      </c>
-      <c r="B115" t="s">
-        <v>488</v>
-      </c>
-      <c r="C115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>458</v>
-      </c>
-      <c r="B116" t="s">
-        <v>489</v>
-      </c>
-      <c r="C116" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>463</v>
-      </c>
-      <c r="B117" t="s">
-        <v>490</v>
-      </c>
-      <c r="C117" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>464</v>
-      </c>
-      <c r="B118" t="s">
-        <v>491</v>
-      </c>
-      <c r="C118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>465</v>
-      </c>
-      <c r="B119" t="s">
-        <v>492</v>
-      </c>
-      <c r="C119" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>466</v>
-      </c>
-      <c r="B120" t="s">
-        <v>493</v>
-      </c>
-      <c r="C120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>467</v>
-      </c>
-      <c r="B121" t="s">
-        <v>494</v>
-      </c>
-      <c r="C121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>468</v>
-      </c>
-      <c r="B122" t="s">
-        <v>495</v>
-      </c>
-      <c r="C122" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>470</v>
-      </c>
-      <c r="B123" t="s">
-        <v>496</v>
-      </c>
-      <c r="C123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>471</v>
-      </c>
-      <c r="B124" t="s">
-        <v>497</v>
-      </c>
-      <c r="C124" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>472</v>
-      </c>
-      <c r="B125" t="s">
-        <v>498</v>
-      </c>
-      <c r="C125" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>473</v>
-      </c>
-      <c r="B126" t="s">
-        <v>499</v>
-      </c>
-      <c r="C126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>474</v>
-      </c>
-      <c r="B127" t="s">
-        <v>500</v>
-      </c>
-      <c r="C127" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>475</v>
-      </c>
-      <c r="B128" t="s">
-        <v>501</v>
-      </c>
-      <c r="C128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>476</v>
-      </c>
-      <c r="B129" t="s">
-        <v>502</v>
-      </c>
-      <c r="C129" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>469</v>
-      </c>
-      <c r="B130" t="s">
-        <v>503</v>
-      </c>
-      <c r="C130" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>477</v>
-      </c>
-      <c r="B131" t="s">
-        <v>504</v>
-      </c>
-      <c r="C131" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>478</v>
-      </c>
-      <c r="B132" t="s">
-        <v>505</v>
-      </c>
-      <c r="C132" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>479</v>
-      </c>
-      <c r="B133" t="s">
-        <v>506</v>
-      </c>
-      <c r="C133" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>480</v>
-      </c>
-      <c r="B134" t="s">
-        <v>507</v>
-      </c>
-      <c r="C134" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>481</v>
-      </c>
-      <c r="B135" t="s">
-        <v>508</v>
-      </c>
-      <c r="C135" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>482</v>
-      </c>
-      <c r="B136" t="s">
-        <v>509</v>
-      </c>
-      <c r="C136" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>483</v>
-      </c>
-      <c r="B137" t="s">
-        <v>510</v>
-      </c>
-      <c r="C137" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>484</v>
-      </c>
-      <c r="B138" t="s">
-        <v>511</v>
-      </c>
-      <c r="C138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>489</v>
-      </c>
-      <c r="B139" t="s">
-        <v>512</v>
-      </c>
-      <c r="C139" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>485</v>
-      </c>
-      <c r="B140" t="s">
-        <v>513</v>
-      </c>
-      <c r="C140" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>486</v>
-      </c>
-      <c r="B141" t="s">
-        <v>514</v>
-      </c>
-      <c r="C141" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>487</v>
-      </c>
-      <c r="B142" t="s">
-        <v>515</v>
-      </c>
-      <c r="C142" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>488</v>
-      </c>
-      <c r="B143" t="s">
-        <v>516</v>
-      </c>
-      <c r="C143" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>490</v>
-      </c>
-      <c r="B144" t="s">
-        <v>517</v>
-      </c>
-      <c r="C144" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>491</v>
-      </c>
-      <c r="B145" t="s">
-        <v>518</v>
-      </c>
-      <c r="C145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>492</v>
-      </c>
-      <c r="B146" t="s">
-        <v>519</v>
-      </c>
-      <c r="C146" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>493</v>
-      </c>
-      <c r="B147" t="s">
-        <v>520</v>
-      </c>
-      <c r="C147" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>494</v>
-      </c>
-      <c r="B148" t="s">
-        <v>521</v>
-      </c>
-      <c r="C148" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>495</v>
-      </c>
-      <c r="B149" t="s">
-        <v>522</v>
-      </c>
-      <c r="C149" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>503</v>
-      </c>
-      <c r="B150" t="s">
-        <v>523</v>
-      </c>
-      <c r="C150" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>496</v>
-      </c>
-      <c r="B151" t="s">
-        <v>524</v>
-      </c>
-      <c r="C151" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>497</v>
-      </c>
-      <c r="B152" t="s">
-        <v>525</v>
-      </c>
-      <c r="C152" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>498</v>
-      </c>
-      <c r="B153" t="s">
-        <v>526</v>
-      </c>
-      <c r="C153" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>499</v>
-      </c>
-      <c r="B154" t="s">
-        <v>527</v>
-      </c>
-      <c r="C154" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>500</v>
-      </c>
-      <c r="B155" t="s">
-        <v>528</v>
-      </c>
-      <c r="C155" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>501</v>
-      </c>
-      <c r="B156" t="s">
-        <v>529</v>
-      </c>
-      <c r="C156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>502</v>
-      </c>
-      <c r="B157" t="s">
-        <v>530</v>
-      </c>
-      <c r="C157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>504</v>
-      </c>
-      <c r="B158" t="s">
-        <v>531</v>
-      </c>
-      <c r="C158" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>497</v>
-      </c>
-      <c r="B159" t="s">
-        <v>532</v>
-      </c>
-      <c r="C159" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>498</v>
-      </c>
-      <c r="B160" t="s">
-        <v>532</v>
-      </c>
-      <c r="C160" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>505</v>
-      </c>
-      <c r="B161" t="s">
-        <v>533</v>
-      </c>
-      <c r="C161" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>506</v>
-      </c>
-      <c r="B162" t="s">
-        <v>534</v>
-      </c>
-      <c r="C162" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>507</v>
-      </c>
-      <c r="B163" t="s">
-        <v>535</v>
-      </c>
-      <c r="C163" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>508</v>
-      </c>
-      <c r="B164" t="s">
-        <v>536</v>
-      </c>
-      <c r="C164" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>509</v>
-      </c>
-      <c r="B165" t="s">
-        <v>537</v>
-      </c>
-      <c r="C165" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>522</v>
-      </c>
-      <c r="B166" t="s">
-        <v>538</v>
-      </c>
-      <c r="C166" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>529</v>
-      </c>
-      <c r="B167" t="s">
-        <v>539</v>
-      </c>
-      <c r="C167" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>530</v>
-      </c>
-      <c r="B168" t="s">
-        <v>540</v>
-      </c>
-      <c r="C168" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>530</v>
-      </c>
-      <c r="B169" t="s">
-        <v>541</v>
-      </c>
-      <c r="C169" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>532</v>
-      </c>
-      <c r="B170" t="s">
-        <v>542</v>
-      </c>
-      <c r="C170" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G171"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="120.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>354</v>
-      </c>
-      <c r="C6" t="s">
-        <v>355</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>357</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C9" t="s">
-        <v>361</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>362</v>
-      </c>
-      <c r="C10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C11" t="s">
-        <v>365</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>366</v>
-      </c>
-      <c r="C12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C13" t="s">
-        <v>369</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" t="s">
-        <v>371</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>372</v>
-      </c>
-      <c r="C15" t="s">
-        <v>373</v>
-      </c>
-      <c r="E15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>374</v>
-      </c>
-      <c r="C16" t="s">
-        <v>375</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>376</v>
-      </c>
-      <c r="C17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>380</v>
-      </c>
-      <c r="C19" t="s">
-        <v>381</v>
-      </c>
-      <c r="E19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" t="s">
-        <v>383</v>
-      </c>
-      <c r="E20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>384</v>
-      </c>
-      <c r="C21" t="s">
-        <v>385</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>386</v>
-      </c>
-      <c r="C22" t="s">
-        <v>387</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>388</v>
-      </c>
-      <c r="C23" t="s">
-        <v>389</v>
-      </c>
-      <c r="E23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>390</v>
-      </c>
-      <c r="C24" t="s">
-        <v>391</v>
-      </c>
-      <c r="E24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>392</v>
-      </c>
-      <c r="C25" t="s">
-        <v>393</v>
-      </c>
-      <c r="E25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>394</v>
-      </c>
-      <c r="C26" t="s">
-        <v>395</v>
-      </c>
-      <c r="E26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>396</v>
-      </c>
-      <c r="C27" t="s">
-        <v>397</v>
-      </c>
-      <c r="E27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>398</v>
-      </c>
-      <c r="C28" t="s">
-        <v>399</v>
-      </c>
-      <c r="E28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>400</v>
-      </c>
-      <c r="C29" t="s">
-        <v>401</v>
-      </c>
-      <c r="E29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C30" t="s">
-        <v>402</v>
-      </c>
-      <c r="E30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>351</v>
-      </c>
-      <c r="C31" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>353</v>
-      </c>
-      <c r="C32" t="s">
-        <v>404</v>
-      </c>
-      <c r="E32" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>355</v>
-      </c>
-      <c r="C33" t="s">
-        <v>405</v>
-      </c>
-      <c r="E33" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>357</v>
-      </c>
-      <c r="C34" t="s">
-        <v>406</v>
-      </c>
-      <c r="E34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>359</v>
-      </c>
-      <c r="C35" t="s">
-        <v>407</v>
-      </c>
-      <c r="E35" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>361</v>
-      </c>
-      <c r="C36" t="s">
-        <v>408</v>
-      </c>
-      <c r="E36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>363</v>
-      </c>
-      <c r="C37" t="s">
-        <v>409</v>
-      </c>
-      <c r="E37" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C38" t="s">
-        <v>410</v>
-      </c>
-      <c r="E38" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" t="s">
-        <v>411</v>
-      </c>
-      <c r="E39" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>369</v>
-      </c>
-      <c r="C40" t="s">
-        <v>412</v>
-      </c>
-      <c r="E40" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>371</v>
-      </c>
-      <c r="C41" t="s">
-        <v>413</v>
-      </c>
-      <c r="E41" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>373</v>
-      </c>
-      <c r="C42" t="s">
-        <v>414</v>
-      </c>
-      <c r="E42" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>375</v>
-      </c>
-      <c r="C43" t="s">
-        <v>415</v>
-      </c>
-      <c r="E43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C44" t="s">
-        <v>416</v>
-      </c>
-      <c r="E44" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>379</v>
-      </c>
-      <c r="C45" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>381</v>
-      </c>
-      <c r="C46" t="s">
-        <v>418</v>
-      </c>
-      <c r="E46" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>383</v>
-      </c>
-      <c r="C47" t="s">
-        <v>419</v>
-      </c>
-      <c r="E47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>385</v>
-      </c>
-      <c r="C48" t="s">
-        <v>420</v>
-      </c>
-      <c r="E48" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>387</v>
-      </c>
-      <c r="C49" t="s">
-        <v>421</v>
-      </c>
-      <c r="E49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>389</v>
-      </c>
-      <c r="C50" t="s">
-        <v>422</v>
-      </c>
-      <c r="E50" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>391</v>
-      </c>
-      <c r="C51" t="s">
-        <v>423</v>
-      </c>
-      <c r="E51" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>393</v>
-      </c>
-      <c r="C52" t="s">
-        <v>424</v>
-      </c>
-      <c r="E52" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" t="s">
-        <v>425</v>
-      </c>
-      <c r="E53" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>397</v>
-      </c>
-      <c r="C54" t="s">
-        <v>426</v>
-      </c>
-      <c r="E54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>399</v>
-      </c>
-      <c r="C55" t="s">
-        <v>427</v>
-      </c>
-      <c r="E55" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>401</v>
-      </c>
-      <c r="C56" t="s">
-        <v>428</v>
-      </c>
-      <c r="E56" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>402</v>
-      </c>
-      <c r="C57" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>403</v>
-      </c>
-      <c r="C58" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>404</v>
-      </c>
-      <c r="C59" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>405</v>
-      </c>
-      <c r="C60" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>407</v>
-      </c>
-      <c r="C62" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>408</v>
-      </c>
-      <c r="C63" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>409</v>
-      </c>
-      <c r="C64" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>410</v>
-      </c>
-      <c r="C65" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>411</v>
-      </c>
-      <c r="C66" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>412</v>
-      </c>
-      <c r="C67" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>413</v>
-      </c>
-      <c r="C68" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>414</v>
-      </c>
-      <c r="C69" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>415</v>
-      </c>
-      <c r="C70" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>416</v>
-      </c>
-      <c r="C71" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>417</v>
-      </c>
-      <c r="C72" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>418</v>
-      </c>
-      <c r="C73" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>419</v>
-      </c>
-      <c r="C74" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>420</v>
-      </c>
-      <c r="C75" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>421</v>
-      </c>
-      <c r="C76" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>422</v>
-      </c>
-      <c r="C77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>423</v>
-      </c>
-      <c r="C78" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>424</v>
-      </c>
-      <c r="C79" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>425</v>
-      </c>
-      <c r="C80" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>426</v>
-      </c>
-      <c r="C81" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>427</v>
-      </c>
-      <c r="C82" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>428</v>
-      </c>
-      <c r="C83" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>429</v>
-      </c>
-      <c r="C84" t="s">
-        <v>456</v>
-      </c>
-      <c r="E84" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>430</v>
-      </c>
-      <c r="C85" t="s">
-        <v>457</v>
-      </c>
-      <c r="E85" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>431</v>
-      </c>
-      <c r="C86" t="s">
-        <v>458</v>
-      </c>
-      <c r="E86" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>432</v>
-      </c>
-      <c r="C87" t="s">
-        <v>459</v>
-      </c>
-      <c r="E87" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>433</v>
-      </c>
-      <c r="C88" t="s">
-        <v>460</v>
-      </c>
-      <c r="E88" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>434</v>
-      </c>
-      <c r="C89" t="s">
-        <v>461</v>
-      </c>
-      <c r="E89" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>435</v>
-      </c>
-      <c r="C90" t="s">
-        <v>462</v>
-      </c>
-      <c r="E90" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>436</v>
-      </c>
-      <c r="C91" t="s">
-        <v>463</v>
-      </c>
-      <c r="E91" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>437</v>
-      </c>
-      <c r="C92" t="s">
-        <v>464</v>
-      </c>
-      <c r="E92" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>438</v>
-      </c>
-      <c r="C93" t="s">
-        <v>465</v>
-      </c>
-      <c r="E93" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>439</v>
-      </c>
-      <c r="C94" t="s">
-        <v>466</v>
-      </c>
-      <c r="E94" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>440</v>
-      </c>
-      <c r="C95" t="s">
-        <v>467</v>
-      </c>
-      <c r="E95" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>441</v>
-      </c>
-      <c r="C96" t="s">
-        <v>468</v>
-      </c>
-      <c r="E96" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>442</v>
-      </c>
-      <c r="C97" t="s">
-        <v>469</v>
-      </c>
-      <c r="E97" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>443</v>
-      </c>
-      <c r="C98" t="s">
-        <v>470</v>
-      </c>
-      <c r="E98" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>444</v>
-      </c>
-      <c r="C99" t="s">
-        <v>471</v>
-      </c>
-      <c r="E99" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>445</v>
-      </c>
-      <c r="C100" t="s">
-        <v>472</v>
-      </c>
-      <c r="E100" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>446</v>
-      </c>
-      <c r="C101" t="s">
-        <v>473</v>
-      </c>
-      <c r="E101" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>447</v>
-      </c>
-      <c r="C102" t="s">
-        <v>474</v>
-      </c>
-      <c r="E102" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>448</v>
-      </c>
-      <c r="C103" t="s">
-        <v>475</v>
-      </c>
-      <c r="E103" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>449</v>
-      </c>
-      <c r="C104" t="s">
-        <v>476</v>
-      </c>
-      <c r="E104" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>450</v>
-      </c>
-      <c r="C105" t="s">
-        <v>477</v>
-      </c>
-      <c r="E105" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>451</v>
-      </c>
-      <c r="C106" t="s">
-        <v>478</v>
-      </c>
-      <c r="E106" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>452</v>
-      </c>
-      <c r="C107" t="s">
-        <v>479</v>
-      </c>
-      <c r="E107" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>453</v>
-      </c>
-      <c r="C108" t="s">
-        <v>480</v>
-      </c>
-      <c r="E108" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>454</v>
-      </c>
-      <c r="C109" t="s">
-        <v>481</v>
-      </c>
-      <c r="E109" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
-        <v>455</v>
-      </c>
-      <c r="C110" t="s">
-        <v>482</v>
-      </c>
-      <c r="E110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>456</v>
-      </c>
-      <c r="C111" t="s">
-        <v>483</v>
-      </c>
-      <c r="E111" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>457</v>
-      </c>
-      <c r="C112" t="s">
-        <v>484</v>
-      </c>
-      <c r="E112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>459</v>
-      </c>
-      <c r="C113" t="s">
-        <v>485</v>
-      </c>
-      <c r="E113" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>460</v>
-      </c>
-      <c r="C114" t="s">
-        <v>486</v>
-      </c>
-      <c r="E114" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>461</v>
-      </c>
-      <c r="C115" t="s">
-        <v>487</v>
-      </c>
-      <c r="E115" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>462</v>
-      </c>
-      <c r="C116" t="s">
-        <v>488</v>
-      </c>
-      <c r="E116" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>458</v>
-      </c>
-      <c r="C117" t="s">
-        <v>489</v>
-      </c>
-      <c r="E117" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>463</v>
-      </c>
-      <c r="C118" t="s">
-        <v>490</v>
-      </c>
-      <c r="E118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>464</v>
-      </c>
-      <c r="C119" t="s">
-        <v>491</v>
-      </c>
-      <c r="E119" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>465</v>
-      </c>
-      <c r="C120" t="s">
-        <v>492</v>
-      </c>
-      <c r="E120" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>466</v>
-      </c>
-      <c r="C121" t="s">
-        <v>493</v>
-      </c>
-      <c r="E121" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>467</v>
-      </c>
-      <c r="C122" t="s">
-        <v>494</v>
-      </c>
-      <c r="E122" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>468</v>
-      </c>
-      <c r="C123" t="s">
-        <v>495</v>
-      </c>
-      <c r="E123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>470</v>
-      </c>
-      <c r="C124" t="s">
-        <v>496</v>
-      </c>
-      <c r="E124" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>471</v>
-      </c>
-      <c r="C125" t="s">
-        <v>497</v>
-      </c>
-      <c r="E125" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>472</v>
-      </c>
-      <c r="C126" t="s">
-        <v>498</v>
-      </c>
-      <c r="E126" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>473</v>
-      </c>
-      <c r="C127" t="s">
-        <v>499</v>
-      </c>
-      <c r="E127" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>474</v>
-      </c>
-      <c r="C128" t="s">
-        <v>500</v>
-      </c>
-      <c r="E128" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>475</v>
-      </c>
-      <c r="C129" t="s">
-        <v>501</v>
-      </c>
-      <c r="E129" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>476</v>
-      </c>
-      <c r="C130" t="s">
-        <v>502</v>
-      </c>
-      <c r="E130" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>469</v>
-      </c>
-      <c r="C131" t="s">
-        <v>503</v>
-      </c>
-      <c r="E131" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>477</v>
-      </c>
-      <c r="C132" t="s">
-        <v>504</v>
-      </c>
-      <c r="E132" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
-        <v>478</v>
-      </c>
-      <c r="C133" t="s">
-        <v>505</v>
-      </c>
-      <c r="E133" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
-        <v>479</v>
-      </c>
-      <c r="C134" t="s">
-        <v>506</v>
-      </c>
-      <c r="E134" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
-        <v>480</v>
-      </c>
-      <c r="C135" t="s">
-        <v>507</v>
-      </c>
-      <c r="E135" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>481</v>
-      </c>
-      <c r="C136" t="s">
-        <v>508</v>
-      </c>
-      <c r="E136" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>482</v>
-      </c>
-      <c r="C137" t="s">
-        <v>509</v>
-      </c>
-      <c r="E137" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
-        <v>483</v>
-      </c>
-      <c r="C138" t="s">
-        <v>510</v>
-      </c>
-      <c r="E138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
-        <v>484</v>
-      </c>
-      <c r="C139" t="s">
-        <v>511</v>
-      </c>
-      <c r="E139" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
-        <v>489</v>
-      </c>
-      <c r="C140" t="s">
-        <v>512</v>
-      </c>
-      <c r="E140" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>485</v>
-      </c>
-      <c r="C141" t="s">
-        <v>513</v>
-      </c>
-      <c r="E141" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>486</v>
-      </c>
-      <c r="C142" t="s">
-        <v>514</v>
-      </c>
-      <c r="E142" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>487</v>
-      </c>
-      <c r="C143" t="s">
-        <v>515</v>
-      </c>
-      <c r="E143" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
-        <v>488</v>
-      </c>
-      <c r="C144" t="s">
-        <v>516</v>
-      </c>
-      <c r="E144" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
-        <v>490</v>
-      </c>
-      <c r="C145" t="s">
-        <v>517</v>
-      </c>
-      <c r="E145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
-        <v>491</v>
-      </c>
-      <c r="C146" t="s">
-        <v>518</v>
-      </c>
-      <c r="E146" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
-        <v>492</v>
-      </c>
-      <c r="C147" t="s">
-        <v>519</v>
-      </c>
-      <c r="E147" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
-        <v>493</v>
-      </c>
-      <c r="C148" t="s">
-        <v>520</v>
-      </c>
-      <c r="E148" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
-        <v>494</v>
-      </c>
-      <c r="C149" t="s">
-        <v>521</v>
-      </c>
-      <c r="E149" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
-        <v>495</v>
-      </c>
-      <c r="C150" t="s">
-        <v>522</v>
-      </c>
-      <c r="E150" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
-        <v>503</v>
-      </c>
-      <c r="C151" t="s">
-        <v>523</v>
-      </c>
-      <c r="E151" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
-        <v>496</v>
-      </c>
-      <c r="C152" t="s">
-        <v>524</v>
-      </c>
-      <c r="E152" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
-        <v>497</v>
-      </c>
-      <c r="C153" t="s">
-        <v>525</v>
-      </c>
-      <c r="E153" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>498</v>
-      </c>
-      <c r="C154" t="s">
-        <v>526</v>
-      </c>
-      <c r="E154" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>499</v>
-      </c>
-      <c r="C155" t="s">
-        <v>527</v>
-      </c>
-      <c r="E155" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>500</v>
-      </c>
-      <c r="C156" t="s">
-        <v>528</v>
-      </c>
-      <c r="E156" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>501</v>
-      </c>
-      <c r="C157" t="s">
-        <v>529</v>
-      </c>
-      <c r="E157" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
-        <v>502</v>
-      </c>
-      <c r="C158" t="s">
-        <v>530</v>
-      </c>
-      <c r="E158" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>504</v>
-      </c>
-      <c r="C159" t="s">
-        <v>531</v>
-      </c>
-      <c r="E159" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>497</v>
-      </c>
-      <c r="C160" t="s">
-        <v>532</v>
-      </c>
-      <c r="E160" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>498</v>
-      </c>
-      <c r="C161" t="s">
-        <v>532</v>
-      </c>
-      <c r="E161" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>505</v>
-      </c>
-      <c r="C162" t="s">
-        <v>533</v>
-      </c>
-      <c r="E162" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>506</v>
-      </c>
-      <c r="C163" t="s">
-        <v>534</v>
-      </c>
-      <c r="E163" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>507</v>
-      </c>
-      <c r="C164" t="s">
-        <v>535</v>
-      </c>
-      <c r="E164" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>508</v>
-      </c>
-      <c r="C165" t="s">
-        <v>536</v>
-      </c>
-      <c r="E165" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>509</v>
-      </c>
-      <c r="C166" t="s">
-        <v>537</v>
-      </c>
-      <c r="E166" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>522</v>
-      </c>
-      <c r="C167" t="s">
-        <v>538</v>
-      </c>
-      <c r="E167" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>529</v>
-      </c>
-      <c r="C168" t="s">
-        <v>539</v>
-      </c>
-      <c r="E168" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>530</v>
-      </c>
-      <c r="C169" t="s">
-        <v>540</v>
-      </c>
-      <c r="E169" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>530</v>
-      </c>
-      <c r="C170" t="s">
-        <v>541</v>
-      </c>
-      <c r="E170" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>532</v>
-      </c>
-      <c r="C171" t="s">
-        <v>542</v>
-      </c>
-      <c r="E171" t="s">
-        <v>344</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>